--- a/yarn-tuning-small-hadoop-cluster.xlsx
+++ b/yarn-tuning-small-hadoop-cluster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster Configuration" sheetId="1" state="visible" r:id="rId2"/>
@@ -1253,7 +1253,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1297,26 +1297,6 @@
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
@@ -1419,9 +1399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>831240</xdr:colOff>
+      <xdr:colOff>830880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>570600</xdr:rowOff>
+      <xdr:rowOff>570240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1431,7 +1411,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2271240" y="169560"/>
-          <a:ext cx="236160" cy="401040"/>
+          <a:ext cx="235800" cy="400680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1536,9 +1516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>596880</xdr:colOff>
+      <xdr:colOff>596520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>570600</xdr:rowOff>
+      <xdr:rowOff>570240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1548,7 +1528,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="492120" y="50760"/>
-          <a:ext cx="104760" cy="519840"/>
+          <a:ext cx="104400" cy="519480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1628,9 +1608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>169920</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1640,7 +1620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="637920" y="158760"/>
-          <a:ext cx="370080" cy="413640"/>
+          <a:ext cx="369720" cy="413280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1725,9 +1705,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>450000</xdr:colOff>
+      <xdr:colOff>449640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1737,7 +1717,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="88920" y="158760"/>
-          <a:ext cx="361080" cy="413640"/>
+          <a:ext cx="360720" cy="413280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1833,9 +1813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>561960</xdr:colOff>
+      <xdr:colOff>561600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1845,7 +1825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1050120" y="169560"/>
-          <a:ext cx="349920" cy="402840"/>
+          <a:ext cx="349560" cy="402480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1976,9 +1956,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>143640</xdr:colOff>
+      <xdr:colOff>143280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1988,7 +1968,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1444320" y="50760"/>
-          <a:ext cx="375480" cy="521640"/>
+          <a:ext cx="375120" cy="521280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2113,9 +2093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>555840</xdr:colOff>
+      <xdr:colOff>555480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2125,7 +2105,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1861920" y="158760"/>
-          <a:ext cx="370080" cy="413640"/>
+          <a:ext cx="369720" cy="413280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2253,9 +2233,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>348480</xdr:colOff>
+      <xdr:colOff>348120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2265,7 +2245,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2523960" y="158760"/>
-          <a:ext cx="339120" cy="413640"/>
+          <a:ext cx="338760" cy="413280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2433,9 +2413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
+      <xdr:colOff>455760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>243360</xdr:rowOff>
+      <xdr:rowOff>243000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2445,7 +2425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2889720" y="161640"/>
-          <a:ext cx="81000" cy="81720"/>
+          <a:ext cx="80640" cy="81360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2614,9 +2594,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>831240</xdr:colOff>
+      <xdr:colOff>830880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>570600</xdr:rowOff>
+      <xdr:rowOff>570240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2626,7 +2606,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2271240" y="169560"/>
-          <a:ext cx="236160" cy="401040"/>
+          <a:ext cx="235800" cy="400680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2731,9 +2711,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>596880</xdr:colOff>
+      <xdr:colOff>596520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>570600</xdr:rowOff>
+      <xdr:rowOff>570240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2743,7 +2723,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="492120" y="50760"/>
-          <a:ext cx="104760" cy="519840"/>
+          <a:ext cx="104400" cy="519480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2823,9 +2803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>169920</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2835,7 +2815,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="637920" y="158760"/>
-          <a:ext cx="370080" cy="413640"/>
+          <a:ext cx="369720" cy="413280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2920,9 +2900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>450000</xdr:colOff>
+      <xdr:colOff>449640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2932,7 +2912,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="88920" y="158760"/>
-          <a:ext cx="361080" cy="413640"/>
+          <a:ext cx="360720" cy="413280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3028,9 +3008,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>561960</xdr:colOff>
+      <xdr:colOff>561600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3040,7 +3020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1050120" y="169560"/>
-          <a:ext cx="349920" cy="402840"/>
+          <a:ext cx="349560" cy="402480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3171,9 +3151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>143640</xdr:colOff>
+      <xdr:colOff>143280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3183,7 +3163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1444320" y="50760"/>
-          <a:ext cx="375480" cy="521640"/>
+          <a:ext cx="375120" cy="521280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3308,9 +3288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>555840</xdr:colOff>
+      <xdr:colOff>555480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3320,7 +3300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1861920" y="158760"/>
-          <a:ext cx="370080" cy="413640"/>
+          <a:ext cx="369720" cy="413280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3448,9 +3428,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>348480</xdr:colOff>
+      <xdr:colOff>348120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3460,7 +3440,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2523960" y="158760"/>
-          <a:ext cx="339120" cy="413640"/>
+          <a:ext cx="338760" cy="413280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3628,9 +3608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
+      <xdr:colOff>455760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>243360</xdr:rowOff>
+      <xdr:rowOff>243000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3640,7 +3620,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2889720" y="161640"/>
-          <a:ext cx="81000" cy="81720"/>
+          <a:ext cx="80640" cy="81360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3809,9 +3789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>831240</xdr:colOff>
+      <xdr:colOff>830880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>570600</xdr:rowOff>
+      <xdr:rowOff>570240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3821,7 +3801,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2271240" y="169560"/>
-          <a:ext cx="236160" cy="401040"/>
+          <a:ext cx="235800" cy="400680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3926,9 +3906,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>596880</xdr:colOff>
+      <xdr:colOff>596520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>570600</xdr:rowOff>
+      <xdr:rowOff>570240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3938,7 +3918,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="492120" y="50760"/>
-          <a:ext cx="104760" cy="519840"/>
+          <a:ext cx="104400" cy="519480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4018,9 +3998,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>169920</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4030,7 +4010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="637920" y="158760"/>
-          <a:ext cx="370080" cy="413640"/>
+          <a:ext cx="369720" cy="413280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4115,9 +4095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>450000</xdr:colOff>
+      <xdr:colOff>449640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4127,7 +4107,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="88920" y="158760"/>
-          <a:ext cx="361080" cy="413640"/>
+          <a:ext cx="360720" cy="413280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4223,9 +4203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>561960</xdr:colOff>
+      <xdr:colOff>561600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4235,7 +4215,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1050120" y="169560"/>
-          <a:ext cx="349920" cy="402840"/>
+          <a:ext cx="349560" cy="402480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4366,9 +4346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>143640</xdr:colOff>
+      <xdr:colOff>143280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4378,7 +4358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1444320" y="50760"/>
-          <a:ext cx="375480" cy="521640"/>
+          <a:ext cx="375120" cy="521280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4503,9 +4483,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>555840</xdr:colOff>
+      <xdr:colOff>555480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4515,7 +4495,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1861920" y="158760"/>
-          <a:ext cx="370080" cy="413640"/>
+          <a:ext cx="369720" cy="413280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4643,9 +4623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>348480</xdr:colOff>
+      <xdr:colOff>348120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>572400</xdr:rowOff>
+      <xdr:rowOff>572040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4655,7 +4635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2523960" y="158760"/>
-          <a:ext cx="339120" cy="413640"/>
+          <a:ext cx="338760" cy="413280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4823,9 +4803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
+      <xdr:colOff>455760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>243360</xdr:rowOff>
+      <xdr:rowOff>243000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4835,7 +4815,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2889720" y="161640"/>
-          <a:ext cx="81000" cy="81720"/>
+          <a:ext cx="80640" cy="81360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5637,8 +5617,8 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5989,7 +5969,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="17" t="n">
-        <v>6144</v>
+        <v>12288</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>87</v>
@@ -6121,7 +6101,7 @@
       <c r="E38" s="19"/>
       <c r="F38" s="18" t="n">
         <f aca="false">FLOOR(($F$16*1024)/$F$28,1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G38" s="18"/>
     </row>
@@ -6140,7 +6120,7 @@
       <c r="G39" s="18"/>
       <c r="H39" s="3" t="n">
         <f aca="false">MIN(F38:F39)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6436,8 +6416,8 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7085,17 +7065,17 @@
     <cfRule type="containsText" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="GOOD" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="BAD" dxfId="2"/>
-    <cfRule type="containsText" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="WARN" dxfId="3"/>
-    <cfRule type="containsText" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="GOOD" dxfId="4"/>
+    <cfRule type="containsText" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="BAD" dxfId="0"/>
+    <cfRule type="containsText" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="WARN" dxfId="1"/>
+    <cfRule type="containsText" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="GOOD" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>IF($F$12="yes",$F$22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF($F$12="yes",$F$17)</formula>
     </cfRule>
   </conditionalFormatting>
